--- a/wash_P/TTO.xlsx
+++ b/wash_P/TTO.xlsx
@@ -59097,7 +59097,7 @@
         <v>0</v>
       </c>
       <c r="CP19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ19" t="n">
         <v>0</v>
@@ -62183,7 +62183,7 @@
         <v>0</v>
       </c>
       <c r="CB20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC20" t="n">
         <v>0</v>
